--- a/仕様書.xlsx
+++ b/仕様書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26518"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7880" yWindow="40" windowWidth="20440" windowHeight="14880" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14880" tabRatio="500" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="仕様書" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="69">
   <si>
     <t>オリジナルサイトの仕様書</t>
     <rPh sb="9" eb="12">
@@ -141,6 +141,393 @@
     <rPh sb="23" eb="24">
       <t>ツ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>個人的に好きな作品を紹介</t>
+    <rPh sb="0" eb="3">
+      <t>コジンテキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サクヒン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ショウカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑴</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑵</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サービス説明</t>
+    <rPh sb="4" eb="6">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文章にて</t>
+    <rPh sb="0" eb="2">
+      <t>ブンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三作品紹介</t>
+    <rPh sb="0" eb="1">
+      <t>サン</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>サクヒン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショウカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像とコメント</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マウスを載せると半透明に</t>
+    <rPh sb="4" eb="5">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ハントウメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お問い合わせページ</t>
+    <rPh sb="1" eb="2">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑴</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>contact.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑵</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>contact_confirm.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑶</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>contact_result.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前、メールアドレス、お問い合わせ内容項目がある</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>送信ボタンがある。</t>
+    <rPh sb="0" eb="2">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未入力項目があればアラーム</t>
+    <rPh sb="0" eb="1">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>送信完了を表示</t>
+    <rPh sb="0" eb="2">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力された内容を表示し確認</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イメージ画像を貼り付け</t>
+    <rPh sb="4" eb="6">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自分の自己紹介文記載</t>
+    <rPh sb="0" eb="2">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>ジコショウカイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>index</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の作品紹介より</t>
+    </r>
+    <rPh sb="6" eb="8">
+      <t>サクヒン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ショウカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作品PVをyoutubeAPIから</t>
+    <rPh sb="0" eb="2">
+      <t>サクヒン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作品の解説を楽天APIから</t>
+    <rPh sb="0" eb="2">
+      <t>サクヒン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイセツ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ラクテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・作品詳細ページ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>楽天と AMAZONの購入ボタン設置</t>
+    <rPh sb="0" eb="2">
+      <t>ラクテン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>セッチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・トップパージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑵ボディ部分</t>
+    <rPh sb="4" eb="6">
+      <t>ブブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑶フッター部分</t>
+    <rPh sb="5" eb="7">
+      <t>ブブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑴ヘッダー部分</t>
+    <rPh sb="5" eb="7">
+      <t>ブブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトルとサブタイトル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホーム、自己紹介、サイト説明、お問い合わせの４つのグローバルナビ</t>
+    <rPh sb="4" eb="8">
+      <t>ジコショウカイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像のスライドショー</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ランダムでDVDパッケージ画像とタイトルが表示</t>
+    <rPh sb="13" eb="15">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>movie_detail.phpへ遷移する作品詳細ボタン設置</t>
+    <rPh sb="17" eb="19">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>サクヒン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>セッチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コピーライトを挿入</t>
+    <rPh sb="7" eb="9">
+      <t>ソウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイトのお知らせを記述</t>
+    <rPh sb="5" eb="6">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キジュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ページの先頭に移動させる機能設置</t>
+    <rPh sb="4" eb="6">
+      <t>セントウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>セッチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>二段組み</t>
+    <rPh sb="0" eb="3">
+      <t>ニダング</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・自己紹介ページ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・サービス説明ページ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -148,7 +535,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -184,6 +571,12 @@
       <color theme="11"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -202,12 +595,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -226,11 +631,33 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="15">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="14" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -301,7 +728,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -344,8 +771,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -387,7 +814,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -430,8 +857,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -473,8 +900,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1096,13 +1523,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="3.83203125" customWidth="1"/>
+    <col min="8" max="8" width="4.6640625" customWidth="1"/>
   </cols>
   <sheetData/>
   <phoneticPr fontId="1"/>
@@ -1118,16 +1546,83 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="F2:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="12" x14ac:dyDescent="0"/>
-  <sheetData/>
+  <cols>
+    <col min="6" max="6" width="3.1640625" style="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="6:7" ht="14">
+      <c r="F2" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="4" spans="6:7" ht="14">
+      <c r="F4" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="6:7" ht="14">
+      <c r="G5" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="6:7" ht="14">
+      <c r="G6" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="6:7" ht="14">
+      <c r="F9" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="6:7" ht="14">
+      <c r="G11" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="6:7" ht="14">
+      <c r="G12" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="6:7" ht="14">
+      <c r="G13" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="6:7" ht="14">
+      <c r="G14" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="6:7" ht="14">
+      <c r="G15" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="6:7" ht="14">
+      <c r="F17" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="6:7" ht="14">
+      <c r="G18" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -1139,14 +1634,54 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="F3:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="12" x14ac:dyDescent="0"/>
-  <sheetData/>
+  <cols>
+    <col min="6" max="6" width="3.5" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="6:7" ht="14">
+      <c r="F3" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="5" spans="6:7" ht="14">
+      <c r="G5" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="6:7" ht="14">
+      <c r="G7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="6:7" ht="14">
+      <c r="G9" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="6:7" ht="14">
+      <c r="G10" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="6:7" ht="14">
+      <c r="G12" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="6:7" ht="14">
+      <c r="G14" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1160,16 +1695,50 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="F3:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="12" x14ac:dyDescent="0"/>
-  <sheetData/>
+  <cols>
+    <col min="6" max="6" width="3.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="6:7" ht="14">
+      <c r="F3" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="6:7" ht="14">
+      <c r="G4" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="6:7" ht="14">
+      <c r="G6" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="6:7" ht="14">
+      <c r="G7" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="6:7" ht="14">
+      <c r="G9" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="6:7" ht="14">
+      <c r="G11" s="8"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -1181,14 +1750,76 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="F4:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="12" x14ac:dyDescent="0"/>
-  <sheetData/>
+  <cols>
+    <col min="6" max="6" width="3.33203125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="6:7" ht="14">
+      <c r="F4" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="6:7" ht="14">
+      <c r="G5" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="6:7" ht="14">
+      <c r="F8" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="6:7" ht="14">
+      <c r="G9" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="6:7" ht="14">
+      <c r="F12" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="6:7" ht="14">
+      <c r="G13" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="6:7" ht="14">
+      <c r="G14" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="6:7" ht="14">
+      <c r="G15" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="7:7" ht="14">
+      <c r="G17" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="7:7" ht="14">
+      <c r="G19" s="8"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -1200,16 +1831,88 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="F4:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="12" x14ac:dyDescent="0"/>
-  <sheetData/>
+  <cols>
+    <col min="6" max="6" width="3" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="6:7" ht="14">
+      <c r="F4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="6:7" ht="14">
+      <c r="G6" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="6:7" ht="14">
+      <c r="F9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="6:7" ht="14">
+      <c r="G10" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="6:7" ht="14">
+      <c r="G11" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="6:7" ht="14">
+      <c r="F14" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="6:7" ht="14">
+      <c r="G15" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="6:7" ht="14">
+      <c r="G16" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="6:7" ht="14">
+      <c r="F18" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="6:7" ht="14">
+      <c r="G19" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="6:7" ht="14">
+      <c r="G21" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
